--- a/N65_HappyLunch.xlsx
+++ b/N65_HappyLunch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\apk\git\Happy_Lunch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F163088B-DFAE-4F8A-B2F7-4A7EEE213FFE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3B07EC-C576-4231-9578-BA8E6FC3C354}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="300">
   <si>
     <t>NHÓM 65: HAPPY LUNCH</t>
   </si>
@@ -907,6 +907,24 @@
   </si>
   <si>
     <t>Đã xuất bill lên database</t>
+  </si>
+  <si>
+    <t>Update adRecharge</t>
+  </si>
+  <si>
+    <t>Load và sắp xếp custormer</t>
+  </si>
+  <si>
+    <t>FoodCat, FoodDetail</t>
+  </si>
+  <si>
+    <t>Foodcat, load food, edit food</t>
+  </si>
+  <si>
+    <t>Chức năng tìm kiếm</t>
+  </si>
+  <si>
+    <t>Chức năng tìm kiếm trong HomePage</t>
   </si>
 </sst>
 </file>
@@ -1712,6 +1730,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="16" fontId="13" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="16" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1730,97 +1835,10 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="16" fontId="13" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="16" fontId="13" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2341,10 +2359,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:H42"/>
+  <dimension ref="B3:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -3004,31 +3022,61 @@
       <c r="B39" s="6">
         <v>30</v>
       </c>
-      <c r="C39" s="34"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
+      <c r="C39" s="38">
+        <v>43604</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="6">
         <v>31</v>
       </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
+      <c r="C40" s="38">
+        <v>43604</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="6">
         <v>32</v>
       </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
+      <c r="C41" s="38">
+        <v>43605</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="6">
@@ -3039,6 +3087,46 @@
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="6">
+        <v>34</v>
+      </c>
+      <c r="C43" s="34"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="6">
+        <v>35</v>
+      </c>
+      <c r="C44" s="34"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="6">
+        <v>36</v>
+      </c>
+      <c r="C45" s="34"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="6">
+        <v>37</v>
+      </c>
+      <c r="C46" s="34"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3077,56 +3165,56 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="25.8">
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
     </row>
     <row r="5" spans="1:9" ht="21">
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
     </row>
     <row r="7" spans="1:9" ht="18">
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="103" t="s">
+      <c r="C7" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="105" t="s">
+      <c r="D7" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="97" t="s">
+      <c r="F7" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="98"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="109" t="s">
+      <c r="G7" s="89"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="101" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18">
-      <c r="B8" s="101"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="108"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="100"/>
       <c r="F8" s="46" t="s">
         <v>60</v>
       </c>
@@ -3136,13 +3224,13 @@
       <c r="H8" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="110"/>
+      <c r="I8" s="102"/>
     </row>
     <row r="9" spans="1:9" ht="18">
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="96" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="48" t="s">
@@ -3161,8 +3249,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="18">
-      <c r="B10" s="93"/>
-      <c r="C10" s="87"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="84"/>
       <c r="D10" s="50" t="s">
         <v>65</v>
       </c>
@@ -3181,8 +3269,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="18">
-      <c r="B11" s="93"/>
-      <c r="C11" s="87"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="50" t="s">
         <v>68</v>
       </c>
@@ -3199,8 +3287,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="18">
-      <c r="B12" s="93"/>
-      <c r="C12" s="87"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="84"/>
       <c r="D12" s="50" t="s">
         <v>70</v>
       </c>
@@ -3217,8 +3305,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.600000000000001" thickBot="1">
-      <c r="B13" s="94"/>
-      <c r="C13" s="88"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="51" t="s">
         <v>71</v>
       </c>
@@ -3236,10 +3324,10 @@
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1">
       <c r="A14" s="52"/>
-      <c r="B14" s="111" t="s">
+      <c r="B14" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="112" t="s">
         <v>93</v>
       </c>
       <c r="D14" s="53" t="s">
@@ -3259,8 +3347,8 @@
     </row>
     <row r="15" spans="1:9" ht="18">
       <c r="A15" s="52"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="84"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="113"/>
       <c r="D15" s="55" t="s">
         <v>128</v>
       </c>
@@ -3278,8 +3366,8 @@
     </row>
     <row r="16" spans="1:9" ht="18">
       <c r="A16" s="52"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="84"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="113"/>
       <c r="D16" s="55" t="s">
         <v>131</v>
       </c>
@@ -3297,8 +3385,8 @@
     </row>
     <row r="17" spans="1:9" ht="18">
       <c r="A17" s="52"/>
-      <c r="B17" s="112"/>
-      <c r="C17" s="84"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="113"/>
       <c r="D17" s="55" t="s">
         <v>129</v>
       </c>
@@ -3316,8 +3404,8 @@
     </row>
     <row r="18" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A18" s="52"/>
-      <c r="B18" s="113"/>
-      <c r="C18" s="85"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="114"/>
       <c r="D18" s="56" t="s">
         <v>130</v>
       </c>
@@ -3335,10 +3423,10 @@
     </row>
     <row r="19" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A19" s="52"/>
-      <c r="B19" s="114">
+      <c r="B19" s="106">
         <v>43712</v>
       </c>
-      <c r="C19" s="86" t="s">
+      <c r="C19" s="96" t="s">
         <v>92</v>
       </c>
       <c r="D19" s="48" t="s">
@@ -3358,8 +3446,8 @@
     </row>
     <row r="20" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A20" s="52"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="87"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="84"/>
       <c r="D20" s="50" t="s">
         <v>133</v>
       </c>
@@ -3377,8 +3465,8 @@
     </row>
     <row r="21" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A21" s="52"/>
-      <c r="B21" s="115"/>
-      <c r="C21" s="87"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="84"/>
       <c r="D21" s="50" t="s">
         <v>134</v>
       </c>
@@ -3396,8 +3484,8 @@
     </row>
     <row r="22" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A22" s="52"/>
-      <c r="B22" s="115"/>
-      <c r="C22" s="87"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="84"/>
       <c r="D22" s="50" t="s">
         <v>76</v>
       </c>
@@ -3415,8 +3503,8 @@
     </row>
     <row r="23" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A23" s="52"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="88"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="85"/>
       <c r="D23" s="51" t="s">
         <v>77</v>
       </c>
@@ -3434,10 +3522,10 @@
     </row>
     <row r="24" spans="1:9" ht="18">
       <c r="A24" s="52"/>
-      <c r="B24" s="80" t="s">
+      <c r="B24" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="83" t="s">
+      <c r="C24" s="112" t="s">
         <v>103</v>
       </c>
       <c r="D24" s="53" t="s">
@@ -3457,8 +3545,8 @@
     </row>
     <row r="25" spans="1:9" ht="18">
       <c r="A25" s="52"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="84"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="113"/>
       <c r="D25" s="55" t="s">
         <v>135</v>
       </c>
@@ -3476,8 +3564,8 @@
     </row>
     <row r="26" spans="1:9" ht="18">
       <c r="A26" s="52"/>
-      <c r="B26" s="81"/>
-      <c r="C26" s="84"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="113"/>
       <c r="D26" s="55" t="s">
         <v>136</v>
       </c>
@@ -3495,8 +3583,8 @@
     </row>
     <row r="27" spans="1:9" ht="18">
       <c r="A27" s="52"/>
-      <c r="B27" s="81"/>
-      <c r="C27" s="84"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="113"/>
       <c r="D27" s="55" t="s">
         <v>100</v>
       </c>
@@ -3514,8 +3602,8 @@
     </row>
     <row r="28" spans="1:9" ht="18">
       <c r="A28" s="52"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="89"/>
+      <c r="B28" s="111"/>
+      <c r="C28" s="115"/>
       <c r="D28" s="57" t="s">
         <v>101</v>
       </c>
@@ -3533,10 +3621,10 @@
     </row>
     <row r="29" spans="1:9" ht="18">
       <c r="A29" s="52"/>
-      <c r="B29" s="102" t="s">
+      <c r="B29" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="90">
+      <c r="C29" s="83">
         <v>43588</v>
       </c>
       <c r="D29" s="48" t="s">
@@ -3556,8 +3644,8 @@
     </row>
     <row r="30" spans="1:9" ht="18">
       <c r="A30" s="52"/>
-      <c r="B30" s="93"/>
-      <c r="C30" s="87"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="84"/>
       <c r="D30" s="50" t="s">
         <v>138</v>
       </c>
@@ -3575,8 +3663,8 @@
     </row>
     <row r="31" spans="1:9" ht="18">
       <c r="A31" s="52"/>
-      <c r="B31" s="93"/>
-      <c r="C31" s="87"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="84"/>
       <c r="D31" s="50" t="s">
         <v>127</v>
       </c>
@@ -3594,8 +3682,8 @@
     </row>
     <row r="32" spans="1:9" ht="18">
       <c r="A32" s="52"/>
-      <c r="B32" s="93"/>
-      <c r="C32" s="87"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="84"/>
       <c r="D32" s="50" t="s">
         <v>140</v>
       </c>
@@ -3613,8 +3701,8 @@
     </row>
     <row r="33" spans="1:9" ht="18">
       <c r="A33" s="52"/>
-      <c r="B33" s="94"/>
-      <c r="C33" s="88"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="85"/>
       <c r="D33" s="51" t="s">
         <v>137</v>
       </c>
@@ -3632,10 +3720,10 @@
     </row>
     <row r="34" spans="1:9" ht="18">
       <c r="A34" s="52"/>
-      <c r="B34" s="80">
+      <c r="B34" s="109">
         <v>43588</v>
       </c>
-      <c r="C34" s="91">
+      <c r="C34" s="116">
         <v>43589</v>
       </c>
       <c r="D34" s="53" t="s">
@@ -3655,8 +3743,8 @@
     </row>
     <row r="35" spans="1:9" ht="18">
       <c r="A35" s="52"/>
-      <c r="B35" s="81"/>
-      <c r="C35" s="84"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="113"/>
       <c r="D35" s="55" t="s">
         <v>143</v>
       </c>
@@ -3674,8 +3762,8 @@
     </row>
     <row r="36" spans="1:9" ht="18">
       <c r="A36" s="52"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="84"/>
+      <c r="B36" s="110"/>
+      <c r="C36" s="113"/>
       <c r="D36" s="55" t="s">
         <v>139</v>
       </c>
@@ -3693,8 +3781,8 @@
     </row>
     <row r="37" spans="1:9" ht="18">
       <c r="A37" s="52"/>
-      <c r="B37" s="81"/>
-      <c r="C37" s="84"/>
+      <c r="B37" s="110"/>
+      <c r="C37" s="113"/>
       <c r="D37" s="55" t="s">
         <v>142</v>
       </c>
@@ -3712,8 +3800,8 @@
     </row>
     <row r="38" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A38" s="52"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="89"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="115"/>
       <c r="D38" s="57" t="s">
         <v>141</v>
       </c>
@@ -3731,10 +3819,10 @@
     </row>
     <row r="39" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A39" s="52"/>
-      <c r="B39" s="92">
+      <c r="B39" s="80">
         <v>43593</v>
       </c>
-      <c r="C39" s="90">
+      <c r="C39" s="83">
         <v>43599</v>
       </c>
       <c r="D39" s="73" t="s">
@@ -3750,8 +3838,8 @@
     </row>
     <row r="40" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A40" s="52"/>
-      <c r="B40" s="93"/>
-      <c r="C40" s="87"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="84"/>
       <c r="D40" s="73" t="s">
         <v>278</v>
       </c>
@@ -3765,8 +3853,8 @@
     </row>
     <row r="41" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A41" s="52"/>
-      <c r="B41" s="93"/>
-      <c r="C41" s="87"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="84"/>
       <c r="D41" s="73" t="s">
         <v>278</v>
       </c>
@@ -3780,8 +3868,8 @@
     </row>
     <row r="42" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A42" s="52"/>
-      <c r="B42" s="93"/>
-      <c r="C42" s="87"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="84"/>
       <c r="D42" s="73" t="s">
         <v>278</v>
       </c>
@@ -3795,8 +3883,8 @@
     </row>
     <row r="43" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A43" s="52"/>
-      <c r="B43" s="94"/>
-      <c r="C43" s="88"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="85"/>
       <c r="D43" s="73" t="s">
         <v>278</v>
       </c>
@@ -3903,6 +3991,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C34:C38"/>
     <mergeCell ref="B39:B43"/>
     <mergeCell ref="C39:C43"/>
     <mergeCell ref="B3:I3"/>
@@ -3919,12 +4013,6 @@
     <mergeCell ref="B19:B23"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="C34:C38"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
